--- a/EncoderTestData30cm.xlsx
+++ b/EncoderTestData30cm.xlsx
@@ -12977,7 +12977,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Number</a:t>
+                  <a:t> or Tick Count</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -13009,8 +13009,9 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Raw Encoder Readings</a:t>
+                  <a:t>Raw Encoder Value</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" baseline="0"/>
               </a:p>
               <a:p>
                 <a:pPr>
@@ -13018,11 +13019,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t> (Unsacled</a:t>
+                  <a:t>(Unsacled</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> - 1/1120th of revolution)</a:t>
+                  <a:t> - 1/1120ths of a rotation)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -13181,15 +13182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
